--- a/用例数据/沪A/合并申报/测试结果.xlsx
+++ b/用例数据/沪A/合并申报/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EBB8BF-1A1C-44A7-B7EC-59EB5DE92282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog2021" sheetId="5" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="630">
   <si>
     <t>ACCTID</t>
   </si>
@@ -1282,15 +1283,9 @@
     <t>100000963.000</t>
   </si>
   <si>
-    <t>-14.300</t>
-  </si>
-  <si>
     <t>990</t>
   </si>
   <si>
-    <t>-100960.600</t>
-  </si>
-  <si>
     <t>110.63580000</t>
   </si>
   <si>
@@ -1312,9 +1307,6 @@
     <t>51967.700</t>
   </si>
   <si>
-    <t>103.20000000</t>
-  </si>
-  <si>
     <t>BRIEFID</t>
   </si>
   <si>
@@ -1591,12 +1583,6 @@
     <t>99990</t>
   </si>
   <si>
-    <t>1018.000</t>
-  </si>
-  <si>
-    <t>100001018.000</t>
-  </si>
-  <si>
     <t>1.000</t>
   </si>
   <si>
@@ -1630,24 +1616,12 @@
     <t>005_001_001</t>
   </si>
   <si>
-    <t>-1022.000</t>
-  </si>
-  <si>
     <t>上海固定收益平台合并申报业务 上海固定收益平台合并申报业务卖方</t>
   </si>
   <si>
-    <t>1028.000</t>
-  </si>
-  <si>
     <t>上海固定收益平台合并申报业务 上海固定收益平台合并申报业务中间商</t>
   </si>
   <si>
-    <t>-1032.000</t>
-  </si>
-  <si>
-    <t>99998968.000</t>
-  </si>
-  <si>
     <t>00001</t>
   </si>
   <si>
@@ -1672,21 +1646,12 @@
     <t>98980.2000</t>
   </si>
   <si>
-    <t>98.780</t>
-  </si>
-  <si>
     <t>202600.0000</t>
   </si>
   <si>
-    <t>100.000</t>
-  </si>
-  <si>
     <t>101300.0000</t>
   </si>
   <si>
-    <t>999.8000</t>
-  </si>
-  <si>
     <t>98980.200</t>
   </si>
   <si>
@@ -1723,9 +1688,6 @@
     <t>CREDITBUYFROZENQTY</t>
   </si>
   <si>
-    <t>20221007000000</t>
-  </si>
-  <si>
     <t>98.7800</t>
   </si>
   <si>
@@ -1741,100 +1703,223 @@
     <t>-10095881.400</t>
   </si>
   <si>
-    <t>999.800</t>
-  </si>
-  <si>
     <t>202600.000</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>102.20000000</t>
-  </si>
-  <si>
-    <t>6.000</t>
-  </si>
-  <si>
     <t>101300.000</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>30052556</t>
-  </si>
-  <si>
-    <t>20221007203501</t>
-  </si>
-  <si>
-    <t>000006907486</t>
-  </si>
-  <si>
     <t>0.0000000000</t>
   </si>
   <si>
-    <t>30052557</t>
-  </si>
-  <si>
-    <t>9998978.000</t>
-  </si>
-  <si>
-    <t>000006907487</t>
-  </si>
-  <si>
-    <t>30052558</t>
-  </si>
-  <si>
-    <t>10000006.000</t>
-  </si>
-  <si>
-    <t>000006907488</t>
-  </si>
-  <si>
-    <t>30052559</t>
-  </si>
-  <si>
     <t>8802</t>
   </si>
   <si>
-    <t>000006907489</t>
-  </si>
-  <si>
-    <t>30052560</t>
-  </si>
-  <si>
-    <t>000006907490</t>
-  </si>
-  <si>
-    <t>30052561</t>
-  </si>
-  <si>
-    <t>9897984.600</t>
-  </si>
-  <si>
-    <t>000006907491</t>
-  </si>
-  <si>
-    <t>30052564</t>
-  </si>
-  <si>
-    <t>10000963.000</t>
-  </si>
-  <si>
-    <t>000006907494</t>
-  </si>
-  <si>
-    <t>30052566</t>
-  </si>
-  <si>
-    <t>000006907496</t>
+    <t>-13.500</t>
+  </si>
+  <si>
+    <t>-100959.800</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>103.30812871</t>
+  </si>
+  <si>
+    <t>100979.8000</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>30002645</t>
+  </si>
+  <si>
+    <t>20230403113143</t>
+  </si>
+  <si>
+    <t>20230403000000</t>
+  </si>
+  <si>
+    <t>-102307.000</t>
+  </si>
+  <si>
+    <t>9897693.000</t>
+  </si>
+  <si>
+    <t>102.000</t>
+  </si>
+  <si>
+    <t>306.000</t>
+  </si>
+  <si>
+    <t>000007160160</t>
+  </si>
+  <si>
+    <t>30002647</t>
+  </si>
+  <si>
+    <t>102690.000</t>
+  </si>
+  <si>
+    <t>10000383.000</t>
+  </si>
+  <si>
+    <t>103.000</t>
+  </si>
+  <si>
+    <t>309.000</t>
+  </si>
+  <si>
+    <t>000007160162</t>
+  </si>
+  <si>
+    <t>30002650</t>
+  </si>
+  <si>
+    <t>-103310.000</t>
+  </si>
+  <si>
+    <t>99896690.000</t>
+  </si>
+  <si>
+    <t>000007160165</t>
+  </si>
+  <si>
+    <t>30002652</t>
+  </si>
+  <si>
+    <t>1018.800</t>
+  </si>
+  <si>
+    <t>100001018.800</t>
+  </si>
+  <si>
+    <t>1.020</t>
+  </si>
+  <si>
+    <t>0.200</t>
+  </si>
+  <si>
+    <t>000007160167</t>
+  </si>
+  <si>
+    <t>30002653</t>
+  </si>
+  <si>
+    <t>-1021.200</t>
+  </si>
+  <si>
+    <t>9999361.800</t>
+  </si>
+  <si>
+    <t>000007160168</t>
+  </si>
+  <si>
+    <t>30002654</t>
+  </si>
+  <si>
+    <t>1028.790</t>
+  </si>
+  <si>
+    <t>10000390.590</t>
+  </si>
+  <si>
+    <t>1.030</t>
+  </si>
+  <si>
+    <t>0.210</t>
+  </si>
+  <si>
+    <t>000007160169</t>
+  </si>
+  <si>
+    <t>30002655</t>
+  </si>
+  <si>
+    <t>-1031.210</t>
+  </si>
+  <si>
+    <t>99895658.790</t>
+  </si>
+  <si>
+    <t>000007160170</t>
+  </si>
+  <si>
+    <t>30002656</t>
+  </si>
+  <si>
+    <t>100102997.400</t>
+  </si>
+  <si>
+    <t>000007160171</t>
+  </si>
+  <si>
+    <t>CDRSH00301</t>
+  </si>
+  <si>
+    <t>30002659</t>
+  </si>
+  <si>
+    <t>9898369.190</t>
+  </si>
+  <si>
+    <t>000007160173</t>
+  </si>
+  <si>
+    <t>30002660</t>
+  </si>
+  <si>
+    <t>10001347.590</t>
+  </si>
+  <si>
+    <t>000007160174</t>
+  </si>
+  <si>
+    <t>30002661</t>
+  </si>
+  <si>
+    <t>99792637.190</t>
+  </si>
+  <si>
+    <t>000007160175</t>
+  </si>
+  <si>
+    <t>30003042</t>
+  </si>
+  <si>
+    <t>20230403113144</t>
+  </si>
+  <si>
+    <t>101693.000</t>
+  </si>
+  <si>
+    <t>100204690.400</t>
+  </si>
+  <si>
+    <t>000007160568</t>
+  </si>
+  <si>
+    <t>100979.800</t>
+  </si>
+  <si>
+    <t>102.12000000</t>
+  </si>
+  <si>
+    <t>390.590</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2153,11 +2238,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:EI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2167,7 +2252,7 @@
         <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -2176,7 +2261,7 @@
         <v>289</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>197</v>
@@ -2185,7 +2270,7 @@
         <v>291</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>303</v>
@@ -2197,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>198</v>
@@ -2215,10 +2300,10 @@
         <v>216</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>217</v>
@@ -2236,43 +2321,43 @@
         <v>290</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>314</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>315</v>
@@ -2287,28 +2372,28 @@
         <v>323</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>32</v>
@@ -2320,19 +2405,19 @@
         <v>43</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>55</v>
@@ -2344,148 +2429,148 @@
         <v>47</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>302</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>338</v>
       </c>
       <c r="BQ1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="BU1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>325</v>
       </c>
       <c r="CL1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="CO1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="CV1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="CW1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="DE1" s="1" t="s">
         <v>70</v>
@@ -2497,52 +2582,52 @@
         <v>26</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>261</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="DN1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="DX1" s="1" t="s">
         <v>332</v>
@@ -2557,54 +2642,60 @@
         <v>336</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="EC1" s="1" t="s">
         <v>320</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="EF1" s="1" t="s">
         <v>334</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>172</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>275</v>
@@ -2619,97 +2710,97 @@
         <v>280</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>281</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>352</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>280</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>529</v>
+        <v>189</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>155</v>
@@ -2736,13 +2827,13 @@
         <v>153</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>287</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>151</v>
@@ -2781,7 +2872,7 @@
         <v>146</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>151</v>
@@ -2799,19 +2890,19 @@
         <v>153</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>159</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>349</v>
@@ -2838,7 +2929,7 @@
         <v>159</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>151</v>
@@ -2906,19 +2997,19 @@
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>153</v>
@@ -2948,46 +3039,46 @@
         <v>280</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>281</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>535</v>
+        <v>580</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>398</v>
+        <v>153</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>151</v>
@@ -3008,19 +3099,19 @@
         <v>151</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>280</v>
@@ -3032,13 +3123,13 @@
         <v>189</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>155</v>
@@ -3065,13 +3156,13 @@
         <v>153</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>287</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>151</v>
@@ -3110,7 +3201,7 @@
         <v>146</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>151</v>
@@ -3128,19 +3219,19 @@
         <v>153</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>159</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>171</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CT3" s="1" t="s">
         <v>349</v>
@@ -3167,7 +3258,7 @@
         <v>159</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>151</v>
@@ -3235,34 +3326,37 @@
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>564</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>172</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>275</v>
@@ -3277,46 +3371,46 @@
         <v>280</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>281</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>380</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>537</v>
+        <v>586</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>587</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>151</v>
@@ -3337,37 +3431,37 @@
         <v>151</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>280</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>155</v>
@@ -3394,13 +3488,13 @@
         <v>153</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>287</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>151</v>
@@ -3409,7 +3503,7 @@
         <v>153</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>173</v>
+        <v>562</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>159</v>
@@ -3439,7 +3533,7 @@
         <v>146</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>151</v>
@@ -3463,19 +3557,19 @@
         <v>159</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>171</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CT4" s="1" t="s">
         <v>349</v>
       </c>
       <c r="CV4" s="1" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="DA4" s="1" t="s">
         <v>173</v>
@@ -3496,7 +3590,7 @@
         <v>159</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>151</v>
@@ -3567,34 +3661,31 @@
         <v>589</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>172</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>275</v>
@@ -3609,46 +3700,46 @@
         <v>280</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>281</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>398</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>539</v>
+        <v>590</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>540</v>
+        <v>591</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>151</v>
@@ -3669,37 +3760,37 @@
         <v>151</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>280</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>178</v>
+        <v>524</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>155</v>
@@ -3726,13 +3817,13 @@
         <v>153</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>287</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>151</v>
@@ -3741,7 +3832,7 @@
         <v>153</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>578</v>
+        <v>173</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>159</v>
@@ -3771,7 +3862,7 @@
         <v>146</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>151</v>
@@ -3789,25 +3880,25 @@
         <v>153</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>159</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>171</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CT5" s="1" t="s">
         <v>349</v>
       </c>
       <c r="CV5" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="DA5" s="1" t="s">
         <v>173</v>
@@ -3828,7 +3919,7 @@
         <v>159</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>151</v>
@@ -3896,40 +3987,40 @@
     </row>
     <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>172</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>279</v>
@@ -3938,46 +4029,46 @@
         <v>280</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>281</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>277</v>
+        <v>398</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>352</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>542</v>
+        <v>596</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>416</v>
+        <v>597</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>153</v>
+        <v>398</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>543</v>
+        <v>592</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>151</v>
@@ -3998,37 +4089,37 @@
         <v>151</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>280</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>529</v>
+        <v>189</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>155</v>
@@ -4055,13 +4146,13 @@
         <v>153</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>287</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>151</v>
@@ -4100,7 +4191,7 @@
         <v>146</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>151</v>
@@ -4118,19 +4209,19 @@
         <v>153</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>159</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>171</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CT6" s="1" t="s">
         <v>349</v>
@@ -4157,7 +4248,7 @@
         <v>159</v>
       </c>
       <c r="DJ6" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="DK6" s="1" t="s">
         <v>151</v>
@@ -4225,19 +4316,19 @@
     </row>
     <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>153</v>
@@ -4255,10 +4346,10 @@
         <v>288</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>279</v>
@@ -4267,46 +4358,46 @@
         <v>280</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>281</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>277</v>
+        <v>398</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>544</v>
+        <v>600</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>423</v>
+        <v>153</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>543</v>
+        <v>602</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>151</v>
@@ -4327,19 +4418,19 @@
         <v>151</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>280</v>
@@ -4351,13 +4442,13 @@
         <v>189</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>155</v>
@@ -4384,13 +4475,13 @@
         <v>153</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="BI7" s="1" t="s">
         <v>287</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="BL7" s="1" t="s">
         <v>151</v>
@@ -4429,7 +4520,7 @@
         <v>146</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>151</v>
@@ -4447,19 +4538,19 @@
         <v>153</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>159</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>171</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CT7" s="1" t="s">
         <v>349</v>
@@ -4486,7 +4577,7 @@
         <v>159</v>
       </c>
       <c r="DJ7" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="DK7" s="1" t="s">
         <v>151</v>
@@ -4554,40 +4645,43 @@
     </row>
     <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>564</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>172</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>279</v>
@@ -4596,46 +4690,46 @@
         <v>280</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>281</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>277</v>
+        <v>398</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>380</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>277</v>
+        <v>567</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>546</v>
+        <v>602</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>151</v>
@@ -4656,37 +4750,37 @@
         <v>151</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AQ8" s="1" t="s">
         <v>280</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AU8" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AX8" s="1" t="s">
         <v>155</v>
@@ -4713,13 +4807,13 @@
         <v>153</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="BI8" s="1" t="s">
         <v>287</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>151</v>
@@ -4728,7 +4822,7 @@
         <v>153</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>173</v>
+        <v>562</v>
       </c>
       <c r="BP8" s="1" t="s">
         <v>159</v>
@@ -4758,7 +4852,7 @@
         <v>146</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="CA8" s="1" t="s">
         <v>151</v>
@@ -4776,25 +4870,25 @@
         <v>153</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>159</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="CL8" s="1" t="s">
         <v>171</v>
       </c>
       <c r="CR8" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CT8" s="1" t="s">
         <v>349</v>
       </c>
       <c r="CV8" s="1" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="DA8" s="1" t="s">
         <v>173</v>
@@ -4815,7 +4909,7 @@
         <v>159</v>
       </c>
       <c r="DJ8" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="DK8" s="1" t="s">
         <v>151</v>
@@ -4883,37 +4977,34 @@
     </row>
     <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>172</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>284</v>
@@ -4928,46 +5019,46 @@
         <v>280</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>281</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>277</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>417</v>
+        <v>610</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>423</v>
+        <v>153</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>151</v>
@@ -4988,37 +5079,37 @@
         <v>151</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AQ9" s="1" t="s">
         <v>280</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>178</v>
+        <v>524</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AU9" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AX9" s="1" t="s">
         <v>155</v>
@@ -5045,13 +5136,13 @@
         <v>153</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="BI9" s="1" t="s">
         <v>287</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="BL9" s="1" t="s">
         <v>151</v>
@@ -5060,7 +5151,7 @@
         <v>153</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>578</v>
+        <v>173</v>
       </c>
       <c r="BP9" s="1" t="s">
         <v>159</v>
@@ -5090,7 +5181,7 @@
         <v>146</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>151</v>
@@ -5108,25 +5199,25 @@
         <v>153</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>159</v>
       </c>
       <c r="CK9" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="CL9" s="1" t="s">
         <v>171</v>
       </c>
       <c r="CR9" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CT9" s="1" t="s">
         <v>349</v>
       </c>
       <c r="CV9" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="DA9" s="1" t="s">
         <v>173</v>
@@ -5147,7 +5238,7 @@
         <v>159</v>
       </c>
       <c r="DJ9" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="DK9" s="1" t="s">
         <v>151</v>
@@ -5213,14 +5304,1352 @@
         <v>171</v>
       </c>
     </row>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BW10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ10" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="CA10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CB10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CD10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CE10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CG10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CH10" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="CJ10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK10" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="CL10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CR10" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="CT10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="CV10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DA10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DC10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DD10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DE10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DF10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DG10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DJ10" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="DK10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DL10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DM10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DN10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="DO10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DP10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DQ10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DS10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DU10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DV10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DW10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DX10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EC10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="ED10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EE10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EG10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EH10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="EI10" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BW11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ11" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="CA11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CB11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CD11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CE11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CG11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CH11" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="CJ11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK11" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="CL11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CR11" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="CT11" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="CV11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DA11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DC11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DD11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DE11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DF11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DG11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DJ11" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="DK11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DL11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DM11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DN11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="DO11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DP11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DQ11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DS11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DU11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DV11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DW11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DX11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EC11" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="ED11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EE11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EG11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EH11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="EI11" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BQ12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BW12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ12" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="CA12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CB12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CD12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CE12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CG12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CH12" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="CJ12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK12" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="CL12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CR12" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="CT12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="CV12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="DA12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DC12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DD12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DE12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DF12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DG12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DJ12" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="DK12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DL12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DM12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DN12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="DO12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DP12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DQ12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DS12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DU12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DV12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DW12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DX12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EC12" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="ED12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EE12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EG12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EH12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="EI12" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BW13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ13" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="CA13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CB13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CD13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CE13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CG13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CH13" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="CJ13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK13" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="CL13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CR13" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="CT13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="CV13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DA13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DC13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DD13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DE13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DF13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DG13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DJ13" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="DK13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DL13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DM13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DN13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="DO13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DP13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DQ13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DS13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DU13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DV13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DW13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DX13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EC13" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="ED13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EE13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EG13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EH13" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="EI13" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5689,7 +7118,7 @@
         <v>150</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>151</v>
@@ -5767,7 +7196,7 @@
         <v>162</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>163</v>
@@ -5944,7 +7373,7 @@
         <v>151</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>174</v>
@@ -6099,7 +7528,7 @@
         <v>150</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>151</v>
@@ -6177,7 +7606,7 @@
         <v>182</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>183</v>
@@ -6348,7 +7777,7 @@
         <v>151</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>174</v>
@@ -6503,7 +7932,7 @@
         <v>150</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>151</v>
@@ -6581,7 +8010,7 @@
         <v>155</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>151</v>
@@ -6755,7 +8184,7 @@
         <v>151</v>
       </c>
       <c r="CU4" s="1" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>174</v>
@@ -6904,7 +8333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10586,16 +12015,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:CH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
@@ -10846,7 +12275,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -10875,22 +12304,22 @@
         <v>153</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>278</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>153</v>
@@ -10926,7 +12355,7 @@
         <v>155</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>153</v>
@@ -11049,10 +12478,10 @@
         <v>282</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>421</v>
+        <v>566</v>
       </c>
       <c r="BR2" s="1" t="s">
         <v>283</v>
@@ -11099,8 +12528,14 @@
       <c r="CF2" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="CG2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="3" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>153</v>
       </c>
@@ -11120,31 +12555,31 @@
         <v>286</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>423</v>
+        <v>567</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>422</v>
+        <v>568</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>423</v>
+        <v>567</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>423</v>
+        <v>567</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>153</v>
@@ -11180,7 +12615,7 @@
         <v>155</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>153</v>
@@ -11300,10 +12735,10 @@
         <v>153</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>424</v>
+        <v>568</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>151</v>
@@ -11353,25 +12788,31 @@
       <c r="CF3" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="CG3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="4" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>284</v>
@@ -11383,22 +12824,22 @@
         <v>153</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>277</v>
+        <v>421</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>426</v>
+        <v>151</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>277</v>
+        <v>421</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>277</v>
+        <v>421</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>153</v>
@@ -11434,7 +12875,7 @@
         <v>155</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>153</v>
@@ -11554,13 +12995,13 @@
         <v>153</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="BR4" s="1" t="s">
         <v>283</v>
@@ -11607,52 +13048,58 @@
       <c r="CF4" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="CG4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="5" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>151</v>
+        <v>424</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>153</v>
@@ -11688,7 +13135,7 @@
         <v>155</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>153</v>
@@ -11808,13 +13255,13 @@
         <v>153</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>151</v>
+        <v>426</v>
       </c>
       <c r="BR5" s="1" t="s">
         <v>283</v>
@@ -11859,6 +13306,12 @@
         <v>153</v>
       </c>
       <c r="CF5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CH5" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -11870,18 +13323,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>197</v>
@@ -12109,18 +13562,18 @@
         <v>273</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>153</v>
@@ -12156,16 +13609,16 @@
         <v>278</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>153</v>
@@ -12201,7 +13654,7 @@
         <v>151</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>153</v>
@@ -12306,10 +13759,10 @@
         <v>282</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>421</v>
+        <v>566</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>283</v>
@@ -12359,7 +13812,7 @@
     </row>
     <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>153</v>
@@ -12392,13 +13845,13 @@
         <v>277</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>153</v>
@@ -12440,7 +13893,7 @@
         <v>151</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>153</v>
@@ -12548,7 +14001,7 @@
         <v>151</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="BM3" s="1" t="s">
         <v>283</v>
@@ -12598,7 +14051,7 @@
     </row>
     <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>153</v>
@@ -12631,19 +14084,19 @@
         <v>153</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>429</v>
+        <v>568</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>572</v>
+        <v>627</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>151</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>398</v>
+        <v>567</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>398</v>
+        <v>567</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>153</v>
@@ -12679,7 +14132,7 @@
         <v>151</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>153</v>
@@ -12781,10 +14234,10 @@
         <v>153</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>429</v>
+        <v>568</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>572</v>
+        <v>627</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>151</v>
@@ -12837,7 +14290,7 @@
     </row>
     <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>153</v>
@@ -12870,19 +14323,19 @@
         <v>277</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>151</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>153</v>
@@ -12918,7 +14371,7 @@
         <v>151</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>153</v>
@@ -13020,10 +14473,10 @@
         <v>153</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>151</v>
@@ -13076,7 +14529,7 @@
     </row>
     <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>153</v>
@@ -13109,13 +14562,13 @@
         <v>153</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>151</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>576</v>
+        <v>629</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>153</v>
@@ -13157,7 +14610,7 @@
         <v>151</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>153</v>
@@ -13259,13 +14712,13 @@
         <v>153</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>576</v>
+        <v>629</v>
       </c>
       <c r="BM6" s="1" t="s">
         <v>283</v>
@@ -13315,7 +14768,7 @@
     </row>
     <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>153</v>
@@ -13348,13 +14801,13 @@
         <v>277</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>277</v>
@@ -13396,7 +14849,7 @@
         <v>151</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>153</v>
@@ -13498,13 +14951,13 @@
         <v>153</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="BM7" s="1" t="s">
         <v>283</v>
